--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2450.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2450.xlsx
@@ -354,7 +354,7 @@
         <v>2.227845422201933</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.884884811423567</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2450.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2450.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.049390111707368</v>
+        <v>1.902352809906006</v>
       </c>
       <c r="B1">
-        <v>2.227845422201933</v>
+        <v>2.084931135177612</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.432700872421265</v>
       </c>
       <c r="D1">
-        <v>2.884884811423567</v>
+        <v>3.758384943008423</v>
       </c>
       <c r="E1">
-        <v>0.9805323576707933</v>
+        <v>1.258178949356079</v>
       </c>
     </row>
   </sheetData>
